--- a/data_sheet.xlsx
+++ b/data_sheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\R&amp;D\DK_Optics Lab\2021\Gold Standard Samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data_ana\DataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EBA595-EB5F-48BC-8916-B58FEA4BA49B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14745" windowHeight="2925" xr2:uid="{CF67275E-34EA-43FB-AB5C-6DC334753295}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14750" windowHeight="2930"/>
   </bookViews>
   <sheets>
     <sheet name="RD0557_ARC6_404_R3C4@lam940nm" sheetId="1" r:id="rId1"/>
@@ -155,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -520,24 +519,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558B5BA6-11B7-4E18-AE12-6AEBB737BAC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="26.26953125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="141" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -557,7 +556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44186</v>
       </c>
@@ -577,7 +576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44235</v>
       </c>
@@ -591,7 +590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44249</v>
       </c>
@@ -605,7 +604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44253</v>
       </c>
@@ -619,7 +618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44253</v>
       </c>
@@ -630,7 +629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44263</v>
       </c>
@@ -646,33 +645,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{0A633821-64AC-4AB7-93C0-0D9B22E66C1D}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{50D580E3-E24A-4965-8A21-CF5E39D05026}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{5EDFC4DB-3841-4C6E-8479-14315C73969B}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{5AE17C18-F6D3-43F8-9EF4-0BB960429C48}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{1901FC11-4393-4B67-BF83-F1ED3E6B5BE6}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{8B8676D7-3B06-4CF3-8AD2-FFA956311FA9}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F5" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="F4" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0BA857-D5FB-4AA8-BA91-933A1C73849D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="153.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" customWidth="1"/>
+    <col min="3" max="3" width="153.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -683,7 +682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44137</v>
       </c>
@@ -694,7 +693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44271</v>
       </c>
@@ -707,30 +706,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{2E9BD0A1-8CB7-4CD5-8775-C24FA7A18DF4}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{033A9D94-0D1A-47C4-8153-CB8AC8879CAE}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854BAA00-1818-44BE-B740-4A923AABBC11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="150.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+    <col min="4" max="4" width="150.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -744,7 +743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44187</v>
       </c>
@@ -758,7 +757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44214</v>
       </c>
@@ -772,7 +771,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44271</v>
       </c>
@@ -788,31 +787,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{4F90E79D-5378-4832-9F35-91D74B9DE34D}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{9D880DB1-BA17-4FD8-ABD7-06E209A57B8F}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{CA8F344D-0EA9-4C1E-B289-F60CF374A1D7}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9110FCBC-D14F-45FD-A7DC-20DDAC616151}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="147.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" customWidth="1"/>
+    <col min="3" max="3" width="28.7265625" customWidth="1"/>
+    <col min="4" max="4" width="147.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -826,7 +825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44238</v>
       </c>
@@ -842,7 +841,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{ADF50449-D917-4D63-A976-12693459C360}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
